--- a/OpsAndMats/Prewetter Ass'y_8027220.xlsx
+++ b/OpsAndMats/Prewetter Ass'y_8027220.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="185">
   <si>
     <t>Item</t>
   </si>
@@ -188,6 +188,9 @@
     <t>8027220-7</t>
   </si>
   <si>
+    <t>Valve Bracket, Prewetting Assembly</t>
+  </si>
+  <si>
     <t>Spacer, Prewetter Valve Bracket, M76MEX…</t>
   </si>
   <si>
@@ -300,6 +303,9 @@
   </si>
   <si>
     <t>Paint, Polane B, Circuit Blue</t>
+  </si>
+  <si>
+    <t>1" x 1/2" HRS flat bar</t>
   </si>
   <si>
     <t>Threaded Rod, ¼-20, St. Stl.</t>
@@ -1062,20 +1068,23 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1093,10 +1102,10 @@
         <v>1.5</v>
       </c>
       <c r="T2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1142,20 +1151,23 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="E3">
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1173,10 +1185,10 @@
         <v>0.0625</v>
       </c>
       <c r="T3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1223,19 +1235,22 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1253,10 +1268,10 @@
         <v>1.5</v>
       </c>
       <c r="T4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1303,22 +1318,22 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1336,10 +1351,10 @@
         <v>0.0625</v>
       </c>
       <c r="T5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1386,22 +1401,22 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1419,10 +1434,10 @@
         <v>1.813</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1469,22 +1484,22 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1502,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1552,22 +1567,22 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1585,10 +1600,10 @@
         <v>2.813</v>
       </c>
       <c r="T8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1635,22 +1650,22 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1668,10 +1683,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1718,22 +1733,22 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1751,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1801,22 +1816,22 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1834,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="T11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1884,22 +1899,22 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1917,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1967,20 +1982,23 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
       </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
       <c r="K13">
         <v>2</v>
       </c>
@@ -1997,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2047,22 +2065,22 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2080,10 +2098,10 @@
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2130,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2163,10 +2181,10 @@
         <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2213,22 +2231,22 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2246,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2296,22 +2314,22 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -2329,10 +2347,10 @@
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2379,22 +2397,22 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2412,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2462,22 +2480,22 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2495,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2545,22 +2563,22 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -2578,10 +2596,10 @@
         <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2628,22 +2646,22 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2661,10 +2679,10 @@
         <v>5</v>
       </c>
       <c r="T21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2711,22 +2729,22 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2744,10 +2762,10 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2794,22 +2812,22 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23">
         <v>12</v>
@@ -2827,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2877,22 +2895,22 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K24">
         <v>13</v>
@@ -2910,10 +2928,10 @@
         <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2960,22 +2978,22 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -2993,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3043,22 +3061,22 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3076,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3126,22 +3144,22 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -3159,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3209,22 +3227,22 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3242,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3292,22 +3310,22 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -3325,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3375,22 +3393,22 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
         <v>46</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3408,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3458,22 +3476,22 @@
         <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -3491,10 +3509,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3541,22 +3559,22 @@
         <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
         <v>49</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3574,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3624,22 +3642,22 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3657,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3707,22 +3725,22 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,10 +3758,10 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3790,22 +3808,22 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -3823,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3873,22 +3891,22 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
         <v>46</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3906,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3956,22 +3974,22 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I37" t="s">
         <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -3989,10 +4007,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4039,22 +4057,22 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E38">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I38" t="s">
         <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4072,10 +4090,10 @@
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4122,22 +4140,22 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4155,10 +4173,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4205,22 +4223,22 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E40">
         <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4238,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4288,22 +4306,22 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>10</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4321,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4371,22 +4389,22 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
       </c>
       <c r="J42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4404,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4454,22 +4472,22 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E43">
         <v>10</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
         <v>6</v>
@@ -4487,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4537,22 +4555,22 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
         <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4570,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U44" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4620,22 +4638,22 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4653,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4703,22 +4721,22 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4736,10 +4754,10 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4786,22 +4804,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4819,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4869,22 +4887,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I48" t="s">
         <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4902,10 +4920,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4952,22 +4970,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E49">
         <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
       </c>
       <c r="J49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K49">
         <v>6</v>
@@ -4985,10 +5003,10 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5035,22 +5053,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E50">
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I50" t="s">
         <v>49</v>
       </c>
       <c r="J50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5068,10 +5086,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5118,22 +5136,22 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5151,10 +5169,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5201,22 +5219,22 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5234,10 +5252,10 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U52" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5284,22 +5302,22 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
         <v>45</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K53">
         <v>4</v>
@@ -5317,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U53" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5367,22 +5385,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>10</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5400,10 +5418,10 @@
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5450,22 +5468,22 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I55" t="s">
         <v>49</v>
       </c>
       <c r="J55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5483,10 +5501,10 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5533,22 +5551,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5566,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U56" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5616,22 +5634,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5649,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U57" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5699,22 +5717,22 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I58" t="s">
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5732,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5782,22 +5800,22 @@
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59">
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
       </c>
       <c r="J59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -5815,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5865,22 +5883,22 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
       </c>
       <c r="J60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K60">
         <v>6</v>
@@ -5898,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5948,22 +5966,22 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I61" t="s">
         <v>49</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5981,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6031,22 +6049,22 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6064,10 +6082,10 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6114,22 +6132,22 @@
         <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>10</v>
       </c>
       <c r="G63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K63">
         <v>3</v>
@@ -6147,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U63" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6197,22 +6215,22 @@
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E64">
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I64" t="s">
         <v>45</v>
       </c>
       <c r="J64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6230,10 +6248,10 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6280,22 +6298,22 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
       </c>
       <c r="J65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K65">
         <v>5</v>
@@ -6313,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="U65" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6397,61 +6415,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -6460,96 +6478,99 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" t="s">
         <v>43</v>
       </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -6582,28 +6603,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -6631,32 +6652,35 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
       <c r="E3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -6689,28 +6713,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -6738,32 +6762,35 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -6796,28 +6823,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -6845,32 +6872,35 @@
       <c r="A5" t="s">
         <v>43</v>
       </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
       <c r="E5">
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -6903,28 +6933,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -6952,32 +6982,35 @@
       <c r="A6" t="s">
         <v>43</v>
       </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -7010,28 +7043,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -7060,34 +7093,34 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -7120,28 +7153,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -7170,34 +7203,34 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -7230,28 +7263,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -7280,34 +7313,34 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -7340,28 +7373,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -7390,34 +7423,34 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -7450,28 +7483,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7500,34 +7533,34 @@
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -7560,28 +7593,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7610,34 +7643,34 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -7670,28 +7703,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -7720,34 +7753,34 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -7780,28 +7813,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -7830,34 +7863,34 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -7890,28 +7923,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7940,34 +7973,34 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -8000,28 +8033,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8050,34 +8083,34 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -8110,28 +8143,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8160,34 +8193,34 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -8220,28 +8253,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8270,34 +8303,34 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -8330,28 +8363,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8380,34 +8413,34 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -8440,28 +8473,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -8490,34 +8523,34 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -8550,28 +8583,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -8600,34 +8633,34 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -8660,28 +8693,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -8710,34 +8743,34 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -8770,28 +8803,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -8820,34 +8853,34 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -8880,28 +8913,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -8930,34 +8963,34 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -8990,28 +9023,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9040,34 +9073,34 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -9100,28 +9133,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9150,34 +9183,34 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -9210,28 +9243,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH26" t="s">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9260,34 +9293,34 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -9320,28 +9353,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH27" t="s">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -9370,34 +9403,34 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -9430,28 +9463,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH28" t="s">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -9480,34 +9513,34 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -9540,28 +9573,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH29" t="s">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -9590,34 +9623,34 @@
         <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -9650,28 +9683,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AH30" t="s">
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AK30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AO30">
         <v>0</v>

--- a/OpsAndMats/Prewetter Ass'y_8027220.xlsx
+++ b/OpsAndMats/Prewetter Ass'y_8027220.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="186">
   <si>
     <t>Item</t>
   </si>
@@ -215,6 +215,9 @@
     <t>ASY010</t>
   </si>
   <si>
+    <t>FAB080</t>
+  </si>
+  <si>
     <t>Fabrication, Saw</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
     <t>Assembly, System</t>
   </si>
   <si>
+    <t>Fabrication, Tapping</t>
+  </si>
+  <si>
     <t>9014304-3</t>
   </si>
   <si>
@@ -281,22 +287,22 @@
     <t>5144226</t>
   </si>
   <si>
+    <t>8027200</t>
+  </si>
+  <si>
     <t>5106201</t>
   </si>
   <si>
     <t>8033115</t>
   </si>
   <si>
-    <t>8027200</t>
-  </si>
-  <si>
     <t>8035491</t>
   </si>
   <si>
     <t>8027201</t>
   </si>
   <si>
-    <t>8029300</t>
+    <t>8027300</t>
   </si>
   <si>
     <t>3 x 2 x 3/16" HRS Angle</t>
@@ -356,22 +362,19 @@
     <t>Male connector, 1/8 MPT x 1/4PTC</t>
   </si>
   <si>
+    <t>Prewetter Sponge Holder</t>
+  </si>
+  <si>
     <t>street elbow, 90°, brass, 1/4" x 1/4"</t>
   </si>
   <si>
     <t>Mounting brackets - Prewetter</t>
   </si>
   <si>
-    <t>Prewetter Sponge Holder</t>
-  </si>
-  <si>
     <t>Tank Mounting Bracket for Prewetter</t>
   </si>
   <si>
     <t>Prewetter mounting bracket</t>
-  </si>
-  <si>
-    <t>Welded assy.</t>
   </si>
   <si>
     <t>Unit</t>
@@ -1078,13 +1081,13 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1102,10 +1105,10 @@
         <v>1.5</v>
       </c>
       <c r="T2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1161,13 +1164,13 @@
         <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1185,10 +1188,10 @@
         <v>0.0625</v>
       </c>
       <c r="T3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1244,13 +1247,13 @@
         <v>63</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1268,10 +1271,10 @@
         <v>1.5</v>
       </c>
       <c r="T4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1327,13 +1330,13 @@
         <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1351,10 +1354,10 @@
         <v>0.0625</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1410,13 +1413,13 @@
         <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1434,10 +1437,10 @@
         <v>1.813</v>
       </c>
       <c r="T6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1493,13 +1496,13 @@
         <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1517,10 +1520,10 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1576,13 +1579,13 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1600,10 +1603,10 @@
         <v>2.813</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1659,13 +1662,13 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1683,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1742,13 +1745,13 @@
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1766,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1825,13 +1828,13 @@
         <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1849,10 +1852,10 @@
         <v>5</v>
       </c>
       <c r="T11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1908,13 +1911,13 @@
         <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1932,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1991,7 +1994,7 @@
         <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
@@ -2015,10 +2018,10 @@
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2074,13 +2077,13 @@
         <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2098,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2157,13 +2160,13 @@
         <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2181,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="T15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2240,13 +2243,13 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2264,10 +2267,10 @@
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2323,13 +2326,13 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -2347,10 +2350,10 @@
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2406,13 +2409,13 @@
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2430,10 +2433,10 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2489,13 +2492,13 @@
         <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2513,10 +2516,10 @@
         <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2572,13 +2575,13 @@
         <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -2596,10 +2599,10 @@
         <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2655,13 +2658,13 @@
         <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2679,10 +2682,10 @@
         <v>5</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2738,13 +2741,13 @@
         <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>11</v>
@@ -2762,10 +2765,10 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2821,13 +2824,13 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23">
         <v>12</v>
@@ -2845,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2904,13 +2907,13 @@
         <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24">
         <v>13</v>
@@ -2928,10 +2931,10 @@
         <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2987,13 +2990,13 @@
         <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K25">
         <v>14</v>
@@ -3011,10 +3014,10 @@
         <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3067,16 +3070,16 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3094,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3147,25 +3150,25 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3177,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3230,25 +3233,25 @@
         <v>62</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3260,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3313,25 +3316,25 @@
         <v>62</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3343,10 +3346,10 @@
         <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3396,13 +3399,13 @@
         <v>62</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>65</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
         <v>46</v>
@@ -3411,10 +3414,10 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3426,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3479,13 +3482,13 @@
         <v>62</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I31" t="s">
         <v>47</v>
@@ -3494,10 +3497,10 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3509,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3565,16 +3568,16 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3592,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="T32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3645,25 +3648,25 @@
         <v>62</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -3675,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3728,13 +3731,13 @@
         <v>62</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
         <v>65</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
         <v>91</v>
@@ -3743,10 +3746,10 @@
         <v>116</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3758,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="T34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3811,25 +3814,25 @@
         <v>62</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>65</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3841,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="T35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3894,13 +3897,13 @@
         <v>62</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
         <v>65</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
         <v>46</v>
@@ -3909,10 +3912,10 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3924,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="T36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3977,13 +3980,13 @@
         <v>62</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
         <v>47</v>
@@ -3992,10 +3995,10 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4007,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4063,16 +4066,16 @@
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4090,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4143,25 +4146,25 @@
         <v>62</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
         <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -4173,10 +4176,10 @@
         <v>1</v>
       </c>
       <c r="T39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4226,25 +4229,25 @@
         <v>62</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4256,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4309,25 +4312,25 @@
         <v>62</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
         <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -4339,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4392,13 +4395,13 @@
         <v>62</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
         <v>46</v>
@@ -4407,10 +4410,10 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4422,10 +4425,10 @@
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4475,13 +4478,13 @@
         <v>62</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
         <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
@@ -4490,10 +4493,10 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -4505,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4561,16 +4564,16 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J44" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4588,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4641,25 +4644,25 @@
         <v>62</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>65</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J45" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -4671,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4724,13 +4727,13 @@
         <v>62</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
         <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
         <v>91</v>
@@ -4739,10 +4742,10 @@
         <v>116</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -4754,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4807,25 +4810,25 @@
         <v>62</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>65</v>
       </c>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -4837,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4890,13 +4893,13 @@
         <v>62</v>
       </c>
       <c r="E48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
         <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I48" t="s">
         <v>46</v>
@@ -4905,10 +4908,10 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4920,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4973,13 +4976,13 @@
         <v>62</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I49" t="s">
         <v>47</v>
@@ -4988,10 +4991,10 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5003,10 +5006,10 @@
         <v>1</v>
       </c>
       <c r="T49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5059,16 +5062,16 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5086,10 +5089,10 @@
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5139,25 +5142,25 @@
         <v>62</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I51" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5169,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5222,25 +5225,25 @@
         <v>62</v>
       </c>
       <c r="E52">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5252,10 +5255,10 @@
         <v>1</v>
       </c>
       <c r="T52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5305,13 +5308,13 @@
         <v>62</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
         <v>65</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I53" t="s">
         <v>45</v>
@@ -5320,10 +5323,10 @@
         <v>59</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -5335,10 +5338,10 @@
         <v>1</v>
       </c>
       <c r="T53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5388,13 +5391,13 @@
         <v>62</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" t="s">
         <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
@@ -5403,10 +5406,10 @@
         <v>60</v>
       </c>
       <c r="K54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5418,10 +5421,10 @@
         <v>1</v>
       </c>
       <c r="T54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5474,16 +5477,13 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J55" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5501,10 +5501,10 @@
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5554,25 +5554,25 @@
         <v>62</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
         <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -5584,10 +5584,10 @@
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5637,25 +5637,25 @@
         <v>62</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
         <v>65</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5667,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="T57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>62</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
         <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I58" t="s">
         <v>44</v>
@@ -5735,10 +5735,10 @@
         <v>58</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -5750,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5803,13 +5803,13 @@
         <v>62</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
         <v>65</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I59" t="s">
         <v>45</v>
@@ -5818,10 +5818,10 @@
         <v>59</v>
       </c>
       <c r="K59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5833,10 +5833,10 @@
         <v>1</v>
       </c>
       <c r="T59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5886,13 +5886,13 @@
         <v>62</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I60" t="s">
         <v>48</v>
@@ -5901,10 +5901,10 @@
         <v>61</v>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5916,10 +5916,10 @@
         <v>1</v>
       </c>
       <c r="T60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5972,16 +5972,16 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5999,10 +5999,10 @@
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -6052,25 +6052,25 @@
         <v>62</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
         <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -6082,10 +6082,10 @@
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -6135,25 +6135,25 @@
         <v>62</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
         <v>65</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J63" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6165,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -6218,13 +6218,13 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
         <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I64" t="s">
         <v>45</v>
@@ -6233,10 +6233,10 @@
         <v>59</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -6248,10 +6248,10 @@
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U64" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6301,13 +6301,13 @@
         <v>62</v>
       </c>
       <c r="E65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
         <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
@@ -6316,10 +6316,10 @@
         <v>60</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -6331,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U65" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6383,7 +6383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW30"/>
+  <dimension ref="A1:AW37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6415,61 +6415,61 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -6478,64 +6478,64 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -6552,25 +6552,25 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P2">
         <v>0.5</v>
@@ -6603,28 +6603,28 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO2">
         <v>0</v>
@@ -6659,28 +6659,28 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P3">
         <v>0.5</v>
@@ -6713,28 +6713,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH3" t="s">
         <v>0</v>
       </c>
       <c r="AI3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -6769,28 +6769,28 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4">
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P4">
         <v>0.5</v>
@@ -6823,28 +6823,28 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH4" t="s">
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -6879,28 +6879,28 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L5">
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P5">
         <v>0.5</v>
@@ -6933,28 +6933,28 @@
         <v>1</v>
       </c>
       <c r="AE5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH5" t="s">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -6992,25 +6992,25 @@
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P6">
         <v>0.5</v>
@@ -7043,28 +7043,28 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH6" t="s">
         <v>0</v>
       </c>
       <c r="AI6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -7102,25 +7102,25 @@
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L7">
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P7">
         <v>0.5</v>
@@ -7153,28 +7153,28 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH7" t="s">
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -7209,28 +7209,28 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8">
         <v>0.5</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8">
         <v>0.5</v>
@@ -7263,28 +7263,28 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH8" t="s">
         <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -7319,28 +7319,28 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L9">
         <v>0.5</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P9">
         <v>0.5</v>
@@ -7373,28 +7373,28 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH9" t="s">
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -7429,28 +7429,28 @@
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L10">
         <v>0.5</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P10">
         <v>0.5</v>
@@ -7483,28 +7483,28 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH10" t="s">
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -7539,28 +7539,28 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L11">
         <v>0.5</v>
       </c>
       <c r="M11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11">
         <v>0.5</v>
@@ -7593,28 +7593,28 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH11" t="s">
         <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -7652,25 +7652,25 @@
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P12">
         <v>0.5</v>
@@ -7703,28 +7703,28 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -7762,25 +7762,25 @@
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L13">
         <v>0.5</v>
       </c>
       <c r="M13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P13">
         <v>0.5</v>
@@ -7813,28 +7813,28 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH13" t="s">
         <v>0</v>
       </c>
       <c r="AI13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -7869,28 +7869,28 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L14">
         <v>0.5</v>
       </c>
       <c r="M14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14">
         <v>0.5</v>
@@ -7923,28 +7923,28 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH14" t="s">
         <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -7982,25 +7982,25 @@
         <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15">
         <v>0.5</v>
       </c>
       <c r="M15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P15">
         <v>0.5</v>
@@ -8033,28 +8033,28 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH15" t="s">
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -8089,28 +8089,28 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16">
         <v>0.5</v>
       </c>
       <c r="M16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16">
         <v>0.5</v>
@@ -8143,28 +8143,28 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH16" t="s">
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -8202,25 +8202,25 @@
         <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17">
         <v>0.5</v>
       </c>
       <c r="M17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17">
         <v>0.5</v>
@@ -8253,28 +8253,28 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH17" t="s">
         <v>0</v>
       </c>
       <c r="AI17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -8309,28 +8309,28 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18">
         <v>0.5</v>
       </c>
       <c r="M18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18">
         <v>0.5</v>
@@ -8363,28 +8363,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH18" t="s">
         <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -8422,25 +8422,25 @@
         <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L19">
         <v>0.5</v>
       </c>
       <c r="M19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P19">
         <v>0.5</v>
@@ -8473,28 +8473,28 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH19" t="s">
         <v>0</v>
       </c>
       <c r="AI19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -8529,28 +8529,28 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20">
         <v>0.5</v>
       </c>
       <c r="M20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P20">
         <v>0.5</v>
@@ -8583,28 +8583,28 @@
         <v>1</v>
       </c>
       <c r="AE20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH20" t="s">
         <v>0</v>
       </c>
       <c r="AI20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -8642,25 +8642,25 @@
         <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L21">
         <v>0.5</v>
       </c>
       <c r="M21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P21">
         <v>0.5</v>
@@ -8693,28 +8693,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH21" t="s">
         <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -8752,25 +8752,25 @@
         <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L22">
         <v>0.5</v>
       </c>
       <c r="M22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P22">
         <v>0.5</v>
@@ -8803,28 +8803,28 @@
         <v>1</v>
       </c>
       <c r="AE22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH22" t="s">
         <v>0</v>
       </c>
       <c r="AI22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -8862,25 +8862,25 @@
         <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L23">
         <v>0.5</v>
       </c>
       <c r="M23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P23">
         <v>0.5</v>
@@ -8913,28 +8913,28 @@
         <v>1</v>
       </c>
       <c r="AE23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH23" t="s">
         <v>0</v>
       </c>
       <c r="AI23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -8969,28 +8969,28 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L24">
         <v>0.5</v>
       </c>
       <c r="M24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P24">
         <v>0.5</v>
@@ -9023,28 +9023,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH24" t="s">
         <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -9070,37 +9070,37 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25">
         <v>0.5</v>
       </c>
       <c r="M25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25">
         <v>0.5</v>
@@ -9133,28 +9133,28 @@
         <v>1</v>
       </c>
       <c r="AE25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH25" t="s">
         <v>0</v>
       </c>
       <c r="AI25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>62</v>
@@ -9189,28 +9189,28 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26">
         <v>0.5</v>
       </c>
       <c r="M26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26">
         <v>0.5</v>
@@ -9243,28 +9243,28 @@
         <v>1</v>
       </c>
       <c r="AE26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH26" t="s">
         <v>0</v>
       </c>
       <c r="AI26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -9290,37 +9290,37 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>65</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27">
         <v>0.5</v>
       </c>
       <c r="M27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P27">
         <v>0.5</v>
@@ -9353,28 +9353,28 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH27" t="s">
         <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -9400,7 +9400,7 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28">
         <v>0.5</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P28">
         <v>0.5</v>
@@ -9463,28 +9463,28 @@
         <v>1</v>
       </c>
       <c r="AE28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH28" t="s">
         <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -9510,37 +9510,37 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>65</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L29">
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P29">
         <v>0.5</v>
@@ -9573,28 +9573,28 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH29" t="s">
         <v>0</v>
       </c>
       <c r="AI29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -9620,7 +9620,7 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L30">
         <v>0.5</v>
       </c>
       <c r="M30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P30">
         <v>0.5</v>
@@ -9683,28 +9683,28 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH30" t="s">
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -9725,6 +9725,776 @@
         <v>0</v>
       </c>
       <c r="AW30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:49">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>178</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>100</v>
+      </c>
+      <c r="AS31">
+        <v>35</v>
+      </c>
+      <c r="AT31">
+        <v>35</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:49">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>179</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>100</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>100</v>
+      </c>
+      <c r="AS32">
+        <v>35</v>
+      </c>
+      <c r="AT32">
+        <v>35</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:49">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>177</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>100</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>100</v>
+      </c>
+      <c r="AS33">
+        <v>35</v>
+      </c>
+      <c r="AT33">
+        <v>35</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:49">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>100</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>100</v>
+      </c>
+      <c r="AS34">
+        <v>35</v>
+      </c>
+      <c r="AT34">
+        <v>35</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:49">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>178</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>100</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>100</v>
+      </c>
+      <c r="AS35">
+        <v>35</v>
+      </c>
+      <c r="AT35">
+        <v>35</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:49">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>177</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>178</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36">
+        <v>0.5</v>
+      </c>
+      <c r="R36">
+        <v>100</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>100</v>
+      </c>
+      <c r="AS36">
+        <v>35</v>
+      </c>
+      <c r="AT36">
+        <v>35</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:49">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>177</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>178</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37">
+        <v>0.5</v>
+      </c>
+      <c r="R37">
+        <v>100</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>100</v>
+      </c>
+      <c r="AS37">
+        <v>35</v>
+      </c>
+      <c r="AT37">
+        <v>35</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
         <v>0</v>
       </c>
     </row>

--- a/OpsAndMats/Prewetter Ass'y_8027220.xlsx
+++ b/OpsAndMats/Prewetter Ass'y_8027220.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="186">
   <si>
     <t>Item</t>
   </si>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
         <v>120</v>
       </c>
       <c r="U10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
         <v>120</v>
       </c>
       <c r="U11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -5484,6 +5484,9 @@
       </c>
       <c r="I55" t="s">
         <v>95</v>
+      </c>
+      <c r="J55" t="s">
+        <v>115</v>
       </c>
       <c r="K55">
         <v>1</v>
